--- a/MakeUp.HS/Resources/匯入學期科目成績(補考成績).xlsx
+++ b/MakeUp.HS/Resources/匯入學期科目成績(補考成績).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>學號</t>
   </si>
@@ -480,15 +480,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -520,18 +520,15 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/MakeUp.HS/Resources/匯入學期科目成績(補考成績).xlsx
+++ b/MakeUp.HS/Resources/匯入學期科目成績(補考成績).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ED\Documents\ischool_github\MakeUp.HS\MakeUp.HS\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ED\Documents\ischool_Github\MakeUp.HS\MakeUp.HS\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225"/>
   </bookViews>
   <sheets>
     <sheet name="匯出學期科目成績" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>學號</t>
   </si>
@@ -56,10 +56,6 @@
   </si>
   <si>
     <t>科目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科目成績</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -397,11 +393,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:O1"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -416,10 +412,10 @@
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" customWidth="1"/>
     <col min="10" max="10" width="6.42578125" customWidth="1"/>
-    <col min="11" max="15" width="10.7109375" customWidth="1"/>
+    <col min="11" max="14" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -453,22 +449,19 @@
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O2" s="1"/>
+    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -482,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -520,13 +513,13 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>

--- a/MakeUp.HS/Resources/匯入學期科目成績(補考成績).xlsx
+++ b/MakeUp.HS/Resources/匯入學期科目成績(補考成績).xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ED\Documents\ischool_Github\MakeUp.HS\MakeUp.HS\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\Visual Studio Project\高中補考作業\MakeUp.HS\MakeUp.HS\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB3EE4E-CC94-4548-A6AF-3DDD72EA285F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="匯出學期科目成績" sheetId="1" r:id="rId1"/>
     <sheet name="無補考分數清單" sheetId="2" r:id="rId2"/>
+    <sheet name="缺考清單" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="80000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
   <si>
     <t>學號</t>
   </si>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -392,12 +394,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -472,11 +474,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -530,4 +532,84 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889C2D5F-53E8-4E0E-B266-D71E4A1FB069}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="11" max="14" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/MakeUp.HS/Resources/匯入學期科目成績(補考成績).xlsx
+++ b/MakeUp.HS/Resources/匯入學期科目成績(補考成績).xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\Visual Studio Project\高中補考作業\MakeUp.HS\MakeUp.HS\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProject\MakeUp.HS\MakeUp.HS\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB3EE4E-CC94-4548-A6AF-3DDD72EA285F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D91D5BC-D393-4C48-AAAF-FA47120FCD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="1080" windowWidth="27120" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="匯出學期科目成績" sheetId="1" r:id="rId1"/>
     <sheet name="無補考分數清單" sheetId="2" r:id="rId2"/>
     <sheet name="缺考清單" sheetId="4" r:id="rId3"/>
+    <sheet name="輸入非0~100值" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="80000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
   <si>
     <t>學號</t>
   </si>
@@ -112,9 +113,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -397,9 +404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -418,46 +425,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="1"/>
@@ -478,52 +485,53 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -538,9 +546,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889C2D5F-53E8-4E0E-B266-D71E4A1FB069}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -559,46 +567,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="1"/>
@@ -612,4 +620,65 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D42193E-D994-44C6-B888-6E1E0DB944C3}">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>